--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294090.2182856032</v>
+        <v>288227.8982504237</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11145489.14172696</v>
+        <v>11144309.18294613</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>176.292103644965</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>372.183345059744</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,7 +674,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226663</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615104</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>93.52529077486069</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>64.24613423698277</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>294.5259902173515</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>227.7511305960826</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968111</v>
+        <v>50.64353720722755</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>229.6408578228398</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>211.9823755520044</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>163.7716027264966</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>178.3662158345583</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
@@ -1427,13 +1427,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>100.8265212977604</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>53.92875199688785</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.40930830407252</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338903</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>23.27075780829227</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1585,7 +1585,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>96.49920063925288</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>86.70112436839254</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>75.73097988834498</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>22.64330005560666</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412925</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277385</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.9290753658111</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253666</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596575003</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565015</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167847</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196088</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380061</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667972</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644699</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883912</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541116</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658309</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701039012</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656633</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059437</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253649</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1778.29226065835</v>
+        <v>1640.678715023047</v>
       </c>
       <c r="C2" t="n">
-        <v>1778.29226065835</v>
+        <v>1247.503213525978</v>
       </c>
       <c r="D2" t="n">
-        <v>1600.219428693739</v>
+        <v>1247.503213525978</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>74.88432743274802</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150838</v>
+        <v>588.4870060424367</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.29226065835</v>
+        <v>1640.678715023047</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021438</v>
+        <v>556.1927859813193</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462236</v>
+        <v>405.5385555414115</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837163</v>
+        <v>275.4495881628918</v>
       </c>
       <c r="E3" t="n">
-        <v>238.623729194604</v>
+        <v>139.0030972737795</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777358</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777358</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653869</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>887.3033373467733</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431051</v>
+        <v>707.9891204222806</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694.8395781571447</v>
+        <v>1980.692347135247</v>
       </c>
       <c r="C4" t="n">
-        <v>524.6344602231339</v>
+        <v>1810.487229201236</v>
       </c>
       <c r="D4" t="n">
-        <v>524.6344602231339</v>
+        <v>1654.854116103751</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823364</v>
+        <v>1499.295303962953</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>1341.969369175926</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275372</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385314</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259113</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597377</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628587</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670295</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446873</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="W4" t="n">
-        <v>880.047596848446</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="X4" t="n">
-        <v>880.047596848446</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.047596848446</v>
+        <v>2075.162337816924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>362.973045515513</v>
+        <v>1080.167954633232</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596593</v>
+        <v>686.9924531361623</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596593</v>
+        <v>686.9924531361623</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596593</v>
+        <v>284.4089282527069</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634775</v>
+        <v>271.5548938230887</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424371</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523738</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958337</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661855</v>
+        <v>1851.661735376341</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661855</v>
+        <v>1480.662700344629</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949118</v>
+        <v>1480.662700344629</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.973045515513</v>
+        <v>1480.662700344629</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653869</v>
+        <v>638.1843148743792</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.27622687548</v>
+        <v>1151.786993484068</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1665.389672093757</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510.1661356715437</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="C7" t="n">
-        <v>510.1661356715437</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="D7" t="n">
-        <v>354.5330225740585</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>510.1661356715437</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>510.1661356715437</v>
+        <v>824.8933162213535</v>
       </c>
       <c r="V7" t="n">
-        <v>510.1661356715437</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W7" t="n">
-        <v>510.1661356715437</v>
+        <v>275.5835689733554</v>
       </c>
       <c r="X7" t="n">
-        <v>510.1661356715437</v>
+        <v>41.5032467563385</v>
       </c>
       <c r="Y7" t="n">
-        <v>510.1661356715437</v>
+        <v>41.5032467563385</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.583586908615</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="C8" t="n">
-        <v>1058.583586908615</v>
+        <v>1803.731934657886</v>
       </c>
       <c r="D8" t="n">
-        <v>673.1424581252832</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>270.5589332418277</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1448.036191975559</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1058.583586908615</v>
+        <v>2200.222643737285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.583586908615</v>
+        <v>1803.731934657886</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.2720179860559</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>360.2720179860559</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>204.6389048885707</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>768.5920978607139</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.4800366773572</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,19 +5066,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2668.450632484341</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2369.247872598823</v>
       </c>
       <c r="X11" t="n">
         <v>2051.591542678073</v>
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.8503184534339</v>
+        <v>326.0960203020797</v>
       </c>
       <c r="C13" t="n">
-        <v>301.441475665617</v>
+        <v>326.0960203020797</v>
       </c>
       <c r="D13" t="n">
-        <v>231.3310632372609</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372609</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
         <v>145.8014035964277</v>
@@ -5203,7 +5203,7 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1473.226825846535</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1342.207017175279</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1178.284240489707</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>964.6417238778014</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840483</v>
+        <v>964.6417238778014</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614198</v>
+        <v>753.1075969551729</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905967</v>
+        <v>590.8235498843499</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.8503184534339</v>
+        <v>439.5077638471871</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1557.030656569138</v>
+        <v>1625.315396040535</v>
       </c>
       <c r="C14" t="n">
-        <v>1557.030656569138</v>
+        <v>1303.936169689659</v>
       </c>
       <c r="D14" t="n">
-        <v>1243.385802931999</v>
+        <v>990.2913160525213</v>
       </c>
       <c r="E14" t="n">
-        <v>912.5985531947376</v>
+        <v>659.5040663152594</v>
       </c>
       <c r="F14" t="n">
-        <v>567.5003898709092</v>
+        <v>314.405902991431</v>
       </c>
       <c r="G14" t="n">
-        <v>226.1339095051064</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873814</v>
+        <v>2866.675164609981</v>
       </c>
       <c r="V14" t="n">
-        <v>2827.282650873814</v>
+        <v>2596.364630459693</v>
       </c>
       <c r="W14" t="n">
-        <v>2528.079890988295</v>
+        <v>2596.364630459693</v>
       </c>
       <c r="X14" t="n">
-        <v>2210.423561067546</v>
+        <v>2278.708300538943</v>
       </c>
       <c r="Y14" t="n">
-        <v>1885.729127134341</v>
+        <v>1954.013866605738</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.2246516310935</v>
+        <v>267.2368287014125</v>
       </c>
       <c r="C16" t="n">
-        <v>463.8158088432766</v>
+        <v>168.8279859135956</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621201</v>
+        <v>84.99114796230407</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675164</v>
+        <v>84.99114796230407</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>84.99114796230407</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>936.042825624545</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>936.042825624545</v>
+        <v>905.7825322771344</v>
       </c>
       <c r="W16" t="n">
-        <v>724.5086987019165</v>
+        <v>694.2484053545058</v>
       </c>
       <c r="X16" t="n">
-        <v>562.2246516310935</v>
+        <v>531.9643582836827</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.2246516310935</v>
+        <v>380.6485722465199</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924233</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,28 +5537,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485496</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974529</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462925</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031230064</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222425</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960423</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343063</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655156</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296521</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106231</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476282</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918818</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924231</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6011,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6069,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128481</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511122</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823213</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240293</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974529</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218597</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1925.441780118093</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2546.304425485128</v>
       </c>
       <c r="O26" t="n">
         <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1532.448062118649</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.707882522575</v>
       </c>
       <c r="M28" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904123</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351195</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388004</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662622</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6488,16 +6488,16 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
         <v>2784.073622420327</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6610,10 +6610,10 @@
         <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6646,19 +6646,19 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X31" t="n">
         <v>722.7688154988165</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835529</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640381</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185701</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464169</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.22038250875</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873282</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765611</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3038.198953538039</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3303.341514273835</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281943</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076163</v>
+        <v>324.4049621617305</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390749</v>
+        <v>807.9710480600437</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>807.9710480600437</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.663254976315</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.671367692973</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404872</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245271</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652546</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597526</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407232</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374223</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729558</v>
+        <v>575.8353109291645</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041651</v>
+        <v>870.6770655353564</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250208</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.72572832737</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400726</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045808</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027492</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.973980501895</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2148.973980501895</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7354,28 +7354,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7415,13 +7415,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7491,16 +7491,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162811</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7734,10 +7734,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462908</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229791</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222398</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960396</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343036</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655128</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.847430707221</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918796</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399963</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O2" t="n">
-        <v>364.6290838376806</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562863</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>458.3732307488528</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>339.6254589296835</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920153</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115914</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>208.0226058553076</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837491</v>
+        <v>611.177706503543</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083978</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>269.8669267356336</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8541,13 +8541,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,22 +9243,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,16 +9717,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>314.1682372053019</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>373.1055958271592</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,19 +10428,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>349.0412045852377</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>239.7567099229144</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>320.902235706038</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,25 +10902,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,19 +11139,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>314.1682372053023</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>166.7809075110245</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>260.5510146246539</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>13.58916126770595</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>28.3129092707246</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>153.2647068951894</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>95.41576550662289</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7.267489683433467</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.84990091121033</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977499.9470246469</v>
+        <v>976898.3994108866</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>977499.9470246469</v>
+        <v>976898.3994108866</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>870411.4101336359</v>
+        <v>870411.4101336361</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870411.4101336362</v>
+        <v>870411.4101336361</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>981569.129879104</v>
+        <v>981569.1298791041</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981569.1298791042</v>
+        <v>981569.1298791041</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>306564.7027587066</v>
       </c>
       <c r="E2" t="n">
-        <v>270910.3398214812</v>
+        <v>270910.3398214811</v>
       </c>
       <c r="F2" t="n">
-        <v>270910.3398214812</v>
+        <v>270910.3398214811</v>
       </c>
       <c r="G2" t="n">
+        <v>306564.7027587063</v>
+      </c>
+      <c r="H2" t="n">
         <v>306564.7027587065</v>
-      </c>
-      <c r="H2" t="n">
-        <v>306564.7027587063</v>
       </c>
       <c r="I2" t="n">
         <v>306564.7027587064</v>
@@ -26338,7 +26338,7 @@
         <v>306564.7027587066</v>
       </c>
       <c r="K2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="L2" t="n">
         <v>306564.7027587065</v>
@@ -26350,10 +26350,10 @@
         <v>306564.7027587064</v>
       </c>
       <c r="O2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="P2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587065</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.4295340133</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668187</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539667</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962299</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277136</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166294</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26427,16 +26427,16 @@
         <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805104</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="J4" t="n">
         <v>148402.4904640164</v>
@@ -26445,19 +26445,19 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="O4" t="n">
         <v>147651.9979996333</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481725</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131270.0530273298</v>
+        <v>-127520.1548267953</v>
       </c>
       <c r="C6" t="n">
-        <v>50934.89526452617</v>
+        <v>46338.50220725995</v>
       </c>
       <c r="D6" t="n">
-        <v>44919.09360675287</v>
+        <v>37182.80438336148</v>
       </c>
       <c r="E6" t="n">
-        <v>5708.677139545151</v>
+        <v>5498.945592855531</v>
       </c>
       <c r="F6" t="n">
-        <v>117831.2386135897</v>
+        <v>117621.5070669</v>
       </c>
       <c r="G6" t="n">
-        <v>53317.6099068718</v>
+        <v>53317.6099068714</v>
       </c>
       <c r="H6" t="n">
-        <v>100742.9354435535</v>
+        <v>100742.9354435537</v>
       </c>
       <c r="I6" t="n">
-        <v>100742.9354435535</v>
+        <v>100742.9354435534</v>
       </c>
       <c r="J6" t="n">
-        <v>-112298.9821537319</v>
+        <v>-105782.6969991588</v>
       </c>
       <c r="K6" t="n">
-        <v>94503.16704077082</v>
+        <v>94503.1670407707</v>
       </c>
       <c r="L6" t="n">
-        <v>39320.57810614953</v>
+        <v>35271.74089567738</v>
       </c>
       <c r="M6" t="n">
-        <v>58542.10598393047</v>
+        <v>57490.41097274231</v>
       </c>
       <c r="N6" t="n">
         <v>100742.9354435535</v>
       </c>
       <c r="O6" t="n">
-        <v>72975.24140078208</v>
+        <v>72975.24140078231</v>
       </c>
       <c r="P6" t="n">
-        <v>100742.9354435534</v>
+        <v>100742.9354435536</v>
       </c>
     </row>
   </sheetData>
@@ -26695,25 +26695,25 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293144</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26917,34 +26917,34 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085234</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924583</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534642</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773712</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085234</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506389</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.2946138505339</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>26.37434457487689</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343288</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925403</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>89.83064772952757</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>216.2509638111514</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>94.71775626474715</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>181.2799973607942</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626953</v>
+        <v>124.5704364758531</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>3.721003490608382</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>200.7431185333176</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>221.7864762897771</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>53.37330316028837</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634530383</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668948</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733512</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.01250026485405</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431727</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833171</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>81.10808140893636</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254068</v>
+        <v>76.79385455031684</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,14 +30174,14 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30280,7 +30280,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
         <v>130.3599693155844</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066881</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>128.2979821082767</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155845</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668673</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950459</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135842</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069743</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>373.0011178946862</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>189.9004073319563</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749502</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>117.9622589983894</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542312</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>177.1793678467447</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644682866</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634530415</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434252</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133855</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>149.0995364028122</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907918</v>
+        <v>456.599714906096</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101047</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698315</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>221.480678316413</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963372</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851011</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>287.7334829729925</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144207</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792975</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>267.8207684199955</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537651</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259.4442692519044</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>147.0691510340255</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653326</v>
+        <v>264.9671660031088</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>233.8188708867233</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.63600263452903</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>249.3850182462349</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835664</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>221.4806783164134</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634527659</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
